--- a/biology/Microbiologie/Journal_of_Eukaryotic_Microbiology/Journal_of_Eukaryotic_Microbiology.xlsx
+++ b/biology/Microbiologie/Journal_of_Eukaryotic_Microbiology/Journal_of_Eukaryotic_Microbiology.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Journal of Eukaryotic Microbiology est un journal scientifique évalué par les pairs traitant de tous les aspects de la microbiologie des eucaryotes. Le journal publie notamment des travaux sur les algues et champignons inférieurs[1].
-Selon le Journal Citation Reports, le journal  a un facteur d'impact en 2021 de 3,88[1].
+Journal of Eukaryotic Microbiology est un journal scientifique évalué par les pairs traitant de tous les aspects de la microbiologie des eucaryotes. Le journal publie notamment des travaux sur les algues et champignons inférieurs.
+Selon le Journal Citation Reports, le journal  a un facteur d'impact en 2021 de 3,88.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Journal of Eukaryotic Microbiology succède à Journal of Protozoology, une revue créée en 1954.
 </t>
@@ -544,9 +558,11 @@
           <t>Indexation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le journal est indexé par plusieurs services tels que[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le journal est indexé par plusieurs services tels que :
 Abstracts in Anthropology (Sage)
 Abstracts on Hygiene &amp; Communicable Diseases (CABI)
 Academic Search (EBSCO Publishing)
@@ -586,7 +602,9 @@
           <t>Publications les plus citées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sina M. Adl et al., 2018. Revisions to the Classification, Nomenclature, and Diversity of Eukaryotes. Pages: 4-119,  26 Septembre 2018.
 Sean Turner, Kathleen M. Pryer, Vivian P.W. Miao, Jeffrey D. Palmer, 2007. Investigating Deep Phylogenetic Relationships among Cyanobacteria and Plastids by Small Subunit rRNA Sequence Analysis. Pages: 327-338, 2 Mai 2007.
